--- a/data/trans_orig/P6602-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6602-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDB6D184-A0B6-4879-B937-1E495DBF44F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6063E54-61BF-497D-B4CB-39D44D4502DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18E1971E-CD31-4006-9B8D-9607756CA7B8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F0701DE1-E11F-4F4B-8488-63F8157BDC1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="794">
   <si>
     <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2007 (Tasa respuesta: 43,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -77,2343 +77,2313 @@
     <t>23,32%</t>
   </si>
   <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>55,34%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>63,28%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
   </si>
   <si>
     <t>10,38%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
   </si>
   <si>
     <t>23,13%</t>
   </si>
   <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2012 (Tasa respuesta: 33,86%)</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a altas/bajas temperaturas en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
     <t>15,52%</t>
   </si>
   <si>
@@ -2430,9 +2400,6 @@
   </si>
   <si>
     <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
   </si>
   <si>
     <t>8,66%</t>
@@ -2865,7 +2832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F0528C-4CAD-48FE-947D-2EF704724964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB912AA-450C-4807-9624-04DCE0E8F1B0}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3919,7 +3886,7 @@
         <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3928,13 +3895,13 @@
         <v>5228</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3943,13 +3910,13 @@
         <v>41706</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,7 +3972,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4017,13 +3984,13 @@
         <v>296172</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H24" s="7">
         <v>285</v>
@@ -4032,13 +3999,13 @@
         <v>301344</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>596</v>
@@ -4047,13 +4014,13 @@
         <v>597517</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4035,13 @@
         <v>107061</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -4083,13 +4050,13 @@
         <v>50140</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M25" s="7">
         <v>156</v>
@@ -4098,13 +4065,13 @@
         <v>157201</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +4086,10 @@
         <v>115656</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>179</v>
@@ -4191,7 +4158,7 @@
         <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="M27" s="7">
         <v>54</v>
@@ -4200,13 +4167,13 @@
         <v>51269</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4241,13 @@
         <v>841776</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>718</v>
@@ -4289,13 +4256,13 @@
         <v>746854</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>1528</v>
@@ -4304,13 +4271,13 @@
         <v>1588630</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4292,13 @@
         <v>408505</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>160</v>
@@ -4340,10 +4307,10 @@
         <v>172372</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>208</v>
@@ -4397,7 +4364,7 @@
         <v>216</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="M31" s="7">
         <v>536</v>
@@ -4406,13 +4373,13 @@
         <v>562323</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4394,13 @@
         <v>161384</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>37</v>
@@ -4442,13 +4409,13 @@
         <v>38711</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>195</v>
@@ -4457,13 +4424,13 @@
         <v>200095</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,7 +4486,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4540,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26B15C-9EB3-4AFA-B73F-4ED6C2386062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65501D2-73BF-46CE-8157-86F292E23C59}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4557,7 +4524,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4664,13 +4631,13 @@
         <v>5775</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4679,13 +4646,13 @@
         <v>15529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4694,13 +4661,13 @@
         <v>21304</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4682,13 @@
         <v>18276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4730,13 +4697,13 @@
         <v>6372</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4745,13 +4712,13 @@
         <v>24648</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4733,13 @@
         <v>12759</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4781,13 +4748,13 @@
         <v>1018</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4796,13 +4763,13 @@
         <v>13777</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,10 +4787,10 @@
         <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4832,13 +4799,13 @@
         <v>2268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -4847,13 +4814,13 @@
         <v>17191</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4888,13 @@
         <v>69438</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="H9" s="7">
         <v>87</v>
@@ -4936,13 +4903,13 @@
         <v>92148</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="M9" s="7">
         <v>153</v>
@@ -4951,13 +4918,13 @@
         <v>161586</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,13 +4939,13 @@
         <v>62760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -4987,13 +4954,13 @@
         <v>30537</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -5002,13 +4969,13 @@
         <v>93296</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +4990,13 @@
         <v>51711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -5038,13 +5005,13 @@
         <v>11308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -5053,13 +5020,13 @@
         <v>63019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5041,13 @@
         <v>32342</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5089,13 +5056,13 @@
         <v>2097</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
@@ -5104,13 +5071,13 @@
         <v>34439</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5145,13 @@
         <v>147989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>154</v>
@@ -5193,13 +5160,13 @@
         <v>169201</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>128</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -5208,13 +5175,13 @@
         <v>317190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5196,13 @@
         <v>102254</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>308</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
         <v>55</v>
@@ -5244,13 +5211,13 @@
         <v>61184</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M15" s="7">
         <v>154</v>
@@ -5259,13 +5226,13 @@
         <v>163438</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,13 +5247,13 @@
         <v>82769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -5295,13 +5262,13 @@
         <v>13456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M16" s="7">
         <v>91</v>
@@ -5310,13 +5277,13 @@
         <v>96225</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,13 +5298,13 @@
         <v>75686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5346,13 +5313,13 @@
         <v>26470</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M17" s="7">
         <v>91</v>
@@ -5361,13 +5328,13 @@
         <v>102157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5402,13 @@
         <v>117133</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>110</v>
@@ -5450,13 +5417,13 @@
         <v>124204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>215</v>
@@ -5465,13 +5432,13 @@
         <v>241336</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5453,13 @@
         <v>79399</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -5501,13 +5468,13 @@
         <v>54351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>121</v>
@@ -5516,13 +5483,13 @@
         <v>133749</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5504,13 @@
         <v>80323</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -5552,13 +5519,13 @@
         <v>20405</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -5567,13 +5534,13 @@
         <v>100728</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,13 +5555,13 @@
         <v>43541</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -5603,13 +5570,13 @@
         <v>15382</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -5618,13 +5585,13 @@
         <v>58923</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>365</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5680,7 +5647,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5692,13 +5659,13 @@
         <v>174763</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="H24" s="7">
         <v>183</v>
@@ -5707,13 +5674,13 @@
         <v>192281</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>347</v>
@@ -5722,13 +5689,13 @@
         <v>367044</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>374</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5710,13 @@
         <v>120125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>366</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -5758,13 +5725,13 @@
         <v>71011</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M25" s="7">
         <v>188</v>
@@ -5773,13 +5740,13 @@
         <v>191136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5761,13 @@
         <v>82592</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -5809,13 +5776,13 @@
         <v>16689</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -5824,13 +5791,13 @@
         <v>99281</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5812,13 @@
         <v>40179</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>172</v>
+        <v>383</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -5860,13 +5827,13 @@
         <v>21522</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="M27" s="7">
         <v>60</v>
@@ -5875,13 +5842,13 @@
         <v>61700</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5916,13 @@
         <v>515098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H29" s="7">
         <v>547</v>
@@ -5964,13 +5931,13 @@
         <v>593363</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M29" s="7">
         <v>1020</v>
@@ -5979,13 +5946,13 @@
         <v>1108460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>404</v>
+        <v>58</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>406</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5967,13 @@
         <v>382813</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H30" s="7">
         <v>207</v>
@@ -6015,13 +5982,13 @@
         <v>223454</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M30" s="7">
         <v>575</v>
@@ -6030,13 +5997,13 @@
         <v>606267</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6018,13 @@
         <v>310154</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H31" s="7">
         <v>58</v>
@@ -6066,13 +6033,13 @@
         <v>62876</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="M31" s="7">
         <v>352</v>
@@ -6081,13 +6048,13 @@
         <v>373029</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>285</v>
+        <v>414</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6069,13 @@
         <v>206672</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H32" s="7">
         <v>63</v>
@@ -6117,13 +6084,13 @@
         <v>67739</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>80</v>
+        <v>420</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M32" s="7">
         <v>256</v>
@@ -6132,13 +6099,13 @@
         <v>274410</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6194,7 +6161,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -6215,7 +6182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A295CE1-97AA-4A40-91AB-B247DE79FC55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821C4541-3B37-4906-8872-D7265B2D00A5}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6232,7 +6199,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6339,13 +6306,13 @@
         <v>10773</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -6354,13 +6321,13 @@
         <v>15997</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>435</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M4" s="7">
         <v>26</v>
@@ -6369,13 +6336,13 @@
         <v>26769</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,13 +6357,13 @@
         <v>14723</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -6405,13 +6372,13 @@
         <v>8551</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>444</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="M5" s="7">
         <v>25</v>
@@ -6420,13 +6387,13 @@
         <v>23274</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6408,13 @@
         <v>6508</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -6456,13 +6423,13 @@
         <v>2582</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>10</v>
@@ -6471,13 +6438,13 @@
         <v>9090</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6459,13 @@
         <v>10909</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>458</v>
+        <v>380</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6507,13 +6474,13 @@
         <v>2762</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>460</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>452</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M7" s="7">
         <v>13</v>
@@ -6522,13 +6489,13 @@
         <v>13671</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6563,13 @@
         <v>63151</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>466</v>
+        <v>311</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="H9" s="7">
         <v>89</v>
@@ -6611,13 +6578,13 @@
         <v>85043</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>371</v>
+        <v>461</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -6626,13 +6593,13 @@
         <v>148195</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6614,13 @@
         <v>49762</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -6662,13 +6629,13 @@
         <v>27375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -6677,13 +6644,13 @@
         <v>77137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6665,13 @@
         <v>37461</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -6713,13 +6680,13 @@
         <v>9980</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>487</v>
+        <v>184</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -6728,13 +6695,13 @@
         <v>47440</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>489</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6716,13 @@
         <v>48895</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6767,10 +6734,10 @@
         <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -6779,13 +6746,13 @@
         <v>63975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6820,13 @@
         <v>132377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
         <v>151</v>
@@ -6868,13 +6835,13 @@
         <v>152422</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -6883,13 +6850,13 @@
         <v>284800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6904,13 +6871,13 @@
         <v>113831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>506</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H15" s="7">
         <v>56</v>
@@ -6919,13 +6886,13 @@
         <v>58111</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>159</v>
@@ -6934,13 +6901,13 @@
         <v>171942</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +6922,13 @@
         <v>81793</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -6970,13 +6937,13 @@
         <v>30570</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -6985,13 +6952,13 @@
         <v>112363</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>316</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>522</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +6973,13 @@
         <v>81387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7021,13 +6988,13 @@
         <v>32667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>527</v>
+        <v>483</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -7036,13 +7003,13 @@
         <v>114054</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7077,13 @@
         <v>92351</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>105</v>
@@ -7125,13 +7092,13 @@
         <v>105995</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -7140,13 +7107,13 @@
         <v>198347</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,13 +7128,13 @@
         <v>113643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -7176,13 +7143,13 @@
         <v>92477</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>529</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="M20" s="7">
         <v>192</v>
@@ -7191,13 +7158,13 @@
         <v>206119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>260</v>
+        <v>532</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,13 +7179,13 @@
         <v>84266</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="H21" s="7">
         <v>50</v>
@@ -7227,13 +7194,13 @@
         <v>52217</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="M21" s="7">
         <v>128</v>
@@ -7242,13 +7209,13 @@
         <v>136482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>103</v>
+        <v>541</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>553</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7230,13 @@
         <v>72444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="H22" s="7">
         <v>19</v>
@@ -7278,13 +7245,13 @@
         <v>19870</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>222</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -7293,13 +7260,13 @@
         <v>92314</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7355,7 +7322,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7367,13 +7334,13 @@
         <v>166080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>563</v>
+        <v>247</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="H24" s="7">
         <v>193</v>
@@ -7382,13 +7349,13 @@
         <v>202327</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>566</v>
+        <v>297</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="M24" s="7">
         <v>354</v>
@@ -7397,13 +7364,13 @@
         <v>368407</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7385,13 @@
         <v>110578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>572</v>
+        <v>486</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -7433,13 +7400,13 @@
         <v>72519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>575</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>177</v>
@@ -7448,13 +7415,13 @@
         <v>183097</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7469,13 +7436,13 @@
         <v>88764</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -7484,13 +7451,13 @@
         <v>30162</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>582</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="M26" s="7">
         <v>115</v>
@@ -7499,13 +7466,13 @@
         <v>118926</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>568</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,7 +7493,7 @@
         <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="H27" s="7">
         <v>17</v>
@@ -7535,13 +7502,13 @@
         <v>17562</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>396</v>
+        <v>573</v>
       </c>
       <c r="M27" s="7">
         <v>49</v>
@@ -7550,13 +7517,13 @@
         <v>51468</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7624,13 +7591,13 @@
         <v>464732</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>376</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="H29" s="7">
         <v>554</v>
@@ -7639,13 +7606,13 @@
         <v>561784</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="M29" s="7">
         <v>985</v>
@@ -7654,13 +7621,13 @@
         <v>1026517</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>597</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7642,13 @@
         <v>402537</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>379</v>
+        <v>584</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>212</v>
+        <v>585</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H30" s="7">
         <v>252</v>
@@ -7690,13 +7657,13 @@
         <v>259032</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="M30" s="7">
         <v>628</v>
@@ -7705,13 +7672,13 @@
         <v>661569</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>606</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7693,13 @@
         <v>298791</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>313</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>118</v>
@@ -7741,13 +7708,13 @@
         <v>125510</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>175</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>403</v>
@@ -7759,10 +7726,10 @@
         <v>136</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>420</v>
+        <v>598</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7744,13 @@
         <v>247541</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="H32" s="7">
         <v>86</v>
@@ -7792,13 +7759,13 @@
         <v>87941</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>428</v>
+        <v>604</v>
       </c>
       <c r="M32" s="7">
         <v>309</v>
@@ -7807,13 +7774,13 @@
         <v>335482</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>619</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7869,7 +7836,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -7890,7 +7857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED1136A-DF60-4798-8399-7D466C75BCC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F306EBA-3118-4341-8FE7-D722A8EF5198}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7907,7 +7874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8014,13 +7981,13 @@
         <v>4172</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>621</v>
+        <v>103</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -8029,13 +7996,13 @@
         <v>9063</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -8044,13 +8011,13 @@
         <v>13235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,10 +8035,10 @@
         <v>105</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -8080,13 +8047,13 @@
         <v>4963</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -8095,13 +8062,13 @@
         <v>10425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8116,13 +8083,13 @@
         <v>8395</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -8131,13 +8098,13 @@
         <v>805</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -8146,13 +8113,13 @@
         <v>9200</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>643</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8134,13 @@
         <v>4287</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>647</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -8182,13 +8149,13 @@
         <v>2018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8197,13 +8164,13 @@
         <v>6305</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8271,13 +8238,13 @@
         <v>35833</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="H9" s="7">
         <v>97</v>
@@ -8286,13 +8253,13 @@
         <v>65072</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>373</v>
+        <v>641</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="M9" s="7">
         <v>130</v>
@@ -8301,13 +8268,13 @@
         <v>100905</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8322,13 +8289,13 @@
         <v>56557</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -8337,13 +8304,13 @@
         <v>28039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>496</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -8352,13 +8319,13 @@
         <v>84596</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8373,13 +8340,13 @@
         <v>38240</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -8388,13 +8355,13 @@
         <v>16386</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="M11" s="7">
         <v>58</v>
@@ -8403,13 +8370,13 @@
         <v>54626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8424,13 +8391,13 @@
         <v>21858</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>678</v>
+        <v>47</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -8439,13 +8406,13 @@
         <v>7481</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>680</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -8454,13 +8421,13 @@
         <v>29338</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8528,13 +8495,13 @@
         <v>166335</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -8543,13 +8510,13 @@
         <v>115007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -8558,13 +8525,13 @@
         <v>281342</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8579,13 +8546,13 @@
         <v>90164</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -8594,13 +8561,13 @@
         <v>66382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>698</v>
+        <v>400</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="M15" s="7">
         <v>174</v>
@@ -8609,13 +8576,13 @@
         <v>156546</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8630,13 +8597,13 @@
         <v>73466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -8645,13 +8612,13 @@
         <v>24830</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="M16" s="7">
         <v>95</v>
@@ -8660,13 +8627,13 @@
         <v>98296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8681,13 +8648,13 @@
         <v>36645</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -8696,13 +8663,13 @@
         <v>17709</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="M17" s="7">
         <v>56</v>
@@ -8711,13 +8678,13 @@
         <v>54354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8785,13 +8752,13 @@
         <v>65863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="H19" s="7">
         <v>108</v>
@@ -8800,13 +8767,13 @@
         <v>80954</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="M19" s="7">
         <v>166</v>
@@ -8815,13 +8782,13 @@
         <v>146818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>726</v>
+        <v>493</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,13 +8803,13 @@
         <v>55206</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="H20" s="7">
         <v>47</v>
@@ -8851,13 +8818,13 @@
         <v>35115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>351</v>
+        <v>715</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -8866,13 +8833,13 @@
         <v>90321</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8887,13 +8854,13 @@
         <v>33359</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>392</v>
+        <v>719</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="H21" s="7">
         <v>22</v>
@@ -8902,13 +8869,13 @@
         <v>26002</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -8917,13 +8884,13 @@
         <v>59361</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>740</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8938,13 +8905,13 @@
         <v>24737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>744</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -8953,13 +8920,13 @@
         <v>12511</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>12</v>
+        <v>729</v>
       </c>
       <c r="M22" s="7">
         <v>39</v>
@@ -8968,13 +8935,13 @@
         <v>37248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9030,7 +8997,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9042,13 +9009,13 @@
         <v>134725</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>566</v>
+        <v>731</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -9057,13 +9024,13 @@
         <v>138952</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="M24" s="7">
         <v>323</v>
@@ -9072,13 +9039,13 @@
         <v>273677</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>128</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9093,13 +9060,13 @@
         <v>53649</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>755</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -9108,13 +9075,13 @@
         <v>37668</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -9123,13 +9090,13 @@
         <v>91318</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>761</v>
+        <v>483</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,13 +9111,13 @@
         <v>27600</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>560</v>
+        <v>746</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>510</v>
+        <v>748</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -9159,13 +9126,13 @@
         <v>9508</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -9174,13 +9141,13 @@
         <v>37108</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9195,13 +9162,13 @@
         <v>18987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>319</v>
+        <v>755</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H27" s="7">
         <v>21</v>
@@ -9210,13 +9177,13 @@
         <v>13048</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="M27" s="7">
         <v>39</v>
@@ -9225,13 +9192,13 @@
         <v>32035</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>85</v>
+        <v>763</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,13 +9266,13 @@
         <v>406929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="H29" s="7">
         <v>566</v>
@@ -9314,13 +9281,13 @@
         <v>409049</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="M29" s="7">
         <v>890</v>
@@ -9329,13 +9296,13 @@
         <v>815977</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9350,13 +9317,13 @@
         <v>261038</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>242</v>
+        <v>774</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="H30" s="7">
         <v>237</v>
@@ -9365,13 +9332,13 @@
         <v>172168</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>776</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="M30" s="7">
         <v>479</v>
@@ -9380,13 +9347,13 @@
         <v>433206</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>138</v>
+        <v>779</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>790</v>
+        <v>502</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9401,13 +9368,13 @@
         <v>181060</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>607</v>
+        <v>780</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="H31" s="7">
         <v>86</v>
@@ -9416,13 +9383,13 @@
         <v>77531</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="M31" s="7">
         <v>254</v>
@@ -9431,13 +9398,13 @@
         <v>258591</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9452,13 +9419,13 @@
         <v>106512</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>797</v>
+        <v>547</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H32" s="7">
         <v>71</v>
@@ -9467,13 +9434,13 @@
         <v>52767</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="M32" s="7">
         <v>170</v>
@@ -9482,13 +9449,13 @@
         <v>159279</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9544,7 +9511,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
